--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,13 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Change to 8MB , First Release for Bring Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. EE Reported : Already Bring Up and Displayed
+2. No Speaker
+3. No LPC Post Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked : RESERVE_PAGE_ROUTE = LPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +93,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -95,6 +105,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,20 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.33203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="54.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43266</v>
       </c>
@@ -397,12 +411,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43267</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Checked : RESERVE_PAGE_ROUTE = LPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release BIOS : SZPRJM01.bin
+1. Adjust IRQ
+2. Adjust LPC Decode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -430,6 +436,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +34,184 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. EE Reported : Already Bring Up and Displayed
-2. No Speaker
-3. No LPC Post Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Checked : RESERVE_PAGE_ROUTE = LPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Release BIOS : SZPRJM01.bin
+    <r>
+      <t xml:space="preserve">Release BIOS : SZPRJM01.bin
 1. Adjust IRQ
-2. Adjust LPC Decode</t>
+2. Adjust LPC Decode
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EE Reported : SATA Detection Failed randomly </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. EE Reported : Already Bring Up and Displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. No Speaker
+3. No LPC Post Code</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EE Feedback : will send out motherboard today
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EE Reported :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每次开机启动都进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>启动不是很顺，我做了一个启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>盘，进入不了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EE Reported :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抓设备时代码停在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，时间很久</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +240,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -113,6 +291,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -395,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -430,18 +611,34 @@
         <v>43270</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43271</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -174,12 +174,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">EE Reported :
 </t>
     </r>
@@ -210,7 +204,46 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>，时间很久</t>
+      <t xml:space="preserve">，时间很久
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release [SZPRJM02]
+EE Reported : sata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">接口没有问题了，是设备的问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EE Reported : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>网口只能抓到一个</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +283,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -579,7 +623,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -633,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43273</v>
       </c>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7728" tabRatio="367"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,7 +243,663 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>网口只能抓到一个</t>
+      <t xml:space="preserve">网口只能抓到一个
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release [SZPRJM03]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Receive motherboard (no debug card)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">base on SZPRJM03
+1. 2 LAN detection normally ( under DOS RU )
+2. USB Boot Normally
+3. SATA detection normally
+4. Legacy Windows 10 x64(1607) Installation normally
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release [SZPRJM04]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EE Issue List : (validate with SZPRJM03)
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每次開機或重啟都會進入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BIOS Setup : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can not duplicated , no problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開機前有接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> USB Stick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，會無法開機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can not duplicated , no problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. SATA1 &amp; SATA2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都接著，可能會無法正常抓到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HDD : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can not duplicated , no problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">COM3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>驚嘆號，有時抓不到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> COM7~COM10 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">issue duplicated , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed in SZPRJM04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兩個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下無法正常工作，且在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下只能抓到一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 LAN detection normally under OS , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但接上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>並沒有偵測到有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Device </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有驚嘆號，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正常，建議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> H/W </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">線路圖錯誤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. F81216D PIN 41 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線路上是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PULL UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，但硬體實際上是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PULL DOWN
+2. F81216D PIN 23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線路上是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PULL UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，但硬體實際上是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PULL DOWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上兩點導致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F81216D Index/Data/EntryValue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SZPRJM03 BIOS Porting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錯誤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後上述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Issue4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>解決</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +953,45 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,6 +1050,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>612946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206696</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2649413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13426440" y="5276386"/>
+          <a:ext cx="4374836" cy="2036467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,17 +1358,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="117.88671875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -677,17 +1418,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43273</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="210.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -716,7 +716,26 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">線路圖錯誤
+      <t>線路圖錯誤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -899,7 +918,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線路圖錯誤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. COM10 Level Shift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計可能有錯誤</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,15 +1126,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>612946</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>948226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>206696</xdr:colOff>
+      <xdr:colOff>183836</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2649413</xdr:rowOff>
+      <xdr:rowOff>1399733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,8 +1151,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13426440" y="5276386"/>
+          <a:off x="13403580" y="4026706"/>
           <a:ext cx="4374836" cy="2036467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1724728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372670</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13571220" y="6388168"/>
+          <a:ext cx="4396030" cy="2913477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="210.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="239.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43276</v>
       </c>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,6 +970,193 @@
       </rPr>
       <t>設計可能有錯誤</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線路圖錯誤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3)
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>硬體上沒有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GPIO1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pin header
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>硬體上有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LPT1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">但線路圖中沒有
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EE confirmed : Ray </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手上的板子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> re-work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，且在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">端已驗證功能正常。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EE feedback : Spec. Change / F81866 DIO -&gt; LPT and need BIOS Option to switch Multi-function</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base on SZPRJM04
+1. Burn-in Test Overnight , PASS (only COM10 error)
+Release [SZPRJM05]
+1. Support F81866 LPT
+2. Switch LPT or DIO according to BIOS Setup Option
+3. Enable POST Beep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,12 +1258,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1085,12 +1287,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,10 +1297,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1382,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>372670</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73825</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1407325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,6 +1402,82 @@
         <a:xfrm>
           <a:off x="13571220" y="6388168"/>
           <a:ext cx="4396030" cy="2913477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>464820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>319078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18143220" y="5128260"/>
+          <a:ext cx="7695238" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145989</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13388340" y="9624060"/>
+          <a:ext cx="5571429" cy="2561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,86 +1755,107 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="117.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="117.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>43266</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>43267</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>43270</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>43271</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>43272</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>43273</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="239.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>43276</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>43277</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1157,6 +1157,204 @@
 1. Support F81866 LPT
 2. Switch LPT or DIO according to BIOS Setup Option
 3. Enable POST Beep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EE Reported :
+1. LPT IRQ Fail (wait for cable &amp; loopback)
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>还同时附有一张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>引导光盘，因为我们在测试中发现，在用光盘引导进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>过程中，无法正常加载光驱驱动，以致于启动进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>后无法读取光盘里的文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（我们的客户经常需要用光盘引导进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DOS, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>并使用光盘里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GHOST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>系统镜像文件）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Release [SZPRJM06]
+1. Support F81866 Smart FAN (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>寄來的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，我這邊無法驗證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+2. F81866 H/W Monitor Porting
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,6 +1511,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,8 +1621,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>319078</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66095</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>256595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,8 +1659,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>145989</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9205</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,10 +1956,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1852,6 +2053,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="78.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43280</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,6 +1161,72 @@
   </si>
   <si>
     <r>
+      <t>Release [SZPRJM06]
+1. Support F81866 Smart FAN (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>寄來的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，我這邊無法驗證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+2. F81866 H/W Monitor Porting
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">EE Reported :
 1. LPT IRQ Fail (wait for cable &amp; loopback)
 2. </t>
@@ -1287,19 +1353,165 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>系统镜像文件）</t>
+      <t xml:space="preserve">系统镜像文件）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我们在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC-CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>时，软件会卡在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Detecting Hardware  00013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上面，无法进入，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>除非提前在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CMOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中关闭所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>口才能正常进入测试软件。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Release [SZPRJM06]
-1. Support F81866 Smart FAN (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+    <t xml:space="preserve">Release[SZPRJM07]
+1. Fixed DOS Utility PC-Check Hang Up Issue
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ray :
+EE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -1309,51 +1521,87 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>只有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，我這邊無法驗證</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-2. F81866 H/W Monitor Porting
-</t>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LPT Loopback </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只能在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下測試使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Windows Burn-in Test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跳線需求不一樣，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LPT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PASS</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1362,7 +1610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1447,6 +1695,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1485,7 +1740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,6 +1769,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1659,8 +1917,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>145989</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>153985</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1956,10 +2214,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2053,15 +2311,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="78.599999999999994" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="111" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>43280</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>43284</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1602,6 +1602,35 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> PASS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Release [SZPRJM08]
+Base on SZPRJM08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Burn-in Test Over-Night PASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. SATA Mode set to Legacy IDE as Default
+3. Disable ALL C State
+4. Disable South Bridge ASPM</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1917,8 +1946,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>145989</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123505</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>695005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2214,10 +2243,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2333,6 +2362,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>43285</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1632,6 +1632,482 @@
 3. Disable ALL C State
 4. Disable South Bridge ASPM</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EE Reported :
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我这几天会全面测试一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>另外，尚有一些默认值需要改到，到时候可一起变更，就可以正式发行了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EE Reported :
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下，比如设定了多少分钟关闭屏幕或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，结果计时结束并没有相应动作。同时，手工点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睡眠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>休眠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也没有动作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Ray] : Can not Duplicate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、当我在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>设定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>POWER ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Last stat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>且在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下非法断电时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>来电后机器并不会自动开机。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Ray] : SZPRJM09 Fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、我在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下点击重启计算机，在关机后的重启瞬间按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>键无法进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIOS SETEUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Ray] : Can not Duplicate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release [SZPRJM09]
+1. AC Power Loss : PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2243,17 +2719,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="117.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="121.5546875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2369,6 +2845,20 @@
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="96" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>43293</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ReleaseHistory.xlsx
+++ b/ReleaseHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>16MB BIOS , First Release for Bring Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2108,6 +2108,18 @@
   <si>
     <t>Release [SZPRJM09]
 1. AC Power Loss : PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE Request :
+1. Add '$$IEISA93$$' String in Legacy Memory "0xFF5F5"
+2. Spec. Changed : Supported PS2 Keyboard/Mouse Wake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release [SZPRJM0A]
+1. Built-in String ; '$$IEI-SA93$$' in Legacy Memory "0xFF5F5"
+2. Supported PS2 Keyboard/Mouse Wake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2719,10 +2731,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2860,6 +2872,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42929</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
